--- a/Рабочие материалы/Реальныве группы 2023-2024/Новички 2023.xlsx
+++ b/Рабочие материалы/Реальныве группы 2023-2024/Новички 2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Фамилия</t>
   </si>
@@ -82,87 +82,99 @@
     <t>Spongia</t>
   </si>
   <si>
+    <t>Лушин</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Павлова</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Пакконен</t>
+  </si>
+  <si>
+    <t>Катарина</t>
+  </si>
+  <si>
+    <t>Трофимов</t>
+  </si>
+  <si>
+    <t>Вадим</t>
+  </si>
+  <si>
+    <t>Щукин</t>
+  </si>
+  <si>
+    <t>Якимова</t>
+  </si>
+  <si>
+    <t>Вера</t>
+  </si>
+  <si>
+    <t>Шашков</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Никифоров</t>
+  </si>
+  <si>
+    <t>Степан</t>
+  </si>
+  <si>
+    <t>Непочатых</t>
+  </si>
+  <si>
+    <t>Семен</t>
+  </si>
+  <si>
+    <t>Вердиев</t>
+  </si>
+  <si>
+    <t>Тимур</t>
+  </si>
+  <si>
+    <t>Соломонова</t>
+  </si>
+  <si>
+    <t>Софья</t>
+  </si>
+  <si>
+    <t>Колесников</t>
+  </si>
+  <si>
+    <t>Родион</t>
+  </si>
+  <si>
+    <t>Святослав</t>
+  </si>
+  <si>
+    <t>Денисенко</t>
+  </si>
+  <si>
+    <t>Пильф</t>
+  </si>
+  <si>
+    <t>Карина</t>
+  </si>
+  <si>
     <t xml:space="preserve">Лозовой </t>
   </si>
   <si>
     <t>Ярослав</t>
   </si>
   <si>
-    <t>Лушин</t>
-  </si>
-  <si>
-    <t>Кирилл</t>
-  </si>
-  <si>
-    <t>Павлова</t>
-  </si>
-  <si>
-    <t>Анна</t>
-  </si>
-  <si>
-    <t>Пакконен</t>
-  </si>
-  <si>
-    <t>Катарина</t>
-  </si>
-  <si>
-    <t>Трофимов</t>
-  </si>
-  <si>
-    <t>Вадим</t>
-  </si>
-  <si>
     <t>Храмцевич</t>
   </si>
   <si>
     <t>Дмитрий</t>
   </si>
   <si>
-    <t>Щукин</t>
-  </si>
-  <si>
-    <t>Якимова</t>
-  </si>
-  <si>
-    <t>Вера</t>
-  </si>
-  <si>
-    <t>Шашков</t>
-  </si>
-  <si>
-    <t>Егор</t>
-  </si>
-  <si>
-    <t>Никифоров</t>
-  </si>
-  <si>
-    <t>Степан</t>
-  </si>
-  <si>
-    <t>Пильф</t>
-  </si>
-  <si>
-    <t>Карина</t>
-  </si>
-  <si>
-    <t>Непочатых</t>
-  </si>
-  <si>
-    <t>Семен</t>
-  </si>
-  <si>
-    <t>Вердиев</t>
-  </si>
-  <si>
-    <t>Тимур</t>
-  </si>
-  <si>
-    <t>Соломонова</t>
-  </si>
-  <si>
-    <t>Софья</t>
-  </si>
-  <si>
     <t>Васильева</t>
   </si>
   <si>
@@ -179,12 +191,6 @@
   </si>
   <si>
     <t>София</t>
-  </si>
-  <si>
-    <t>Колесников</t>
-  </si>
-  <si>
-    <t>Родион</t>
   </si>
 </sst>
 </file>
@@ -193,10 +199,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -215,9 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,31 +237,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,15 +268,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,38 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,16 +335,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +374,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,61 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,43 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,43 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,8 +586,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,35 +657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,148 +670,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,14 +1150,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AW25"/>
+  <dimension ref="A1:BJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW22" sqref="AW22"/>
+      <selection pane="bottomRight" activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1187,9 +1193,17 @@
     <col min="46" max="46" width="10.375"/>
     <col min="47" max="47" width="2.375" customWidth="1"/>
     <col min="48" max="49" width="10.375"/>
+    <col min="50" max="51" width="2.375" customWidth="1"/>
+    <col min="52" max="52" width="10.375"/>
+    <col min="53" max="53" width="3.375" customWidth="1"/>
+    <col min="54" max="54" width="10.375"/>
+    <col min="55" max="55" width="3.375" customWidth="1"/>
+    <col min="56" max="57" width="10.375"/>
+    <col min="58" max="59" width="2.375" customWidth="1"/>
+    <col min="60" max="62" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,8 +1292,20 @@
       <c r="AW1" s="4">
         <v>45346</v>
       </c>
+      <c r="AZ1" s="4">
+        <v>45353</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>45360</v>
+      </c>
+      <c r="BD1" s="4">
+        <v>45367</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>45374</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:62">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W18" si="0">SUM(C2:U2)</f>
+        <f t="shared" ref="W2:W7" si="0">SUM(C2:U2)</f>
         <v>10</v>
       </c>
       <c r="Y2">
@@ -1346,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG11" si="1">SUM(W2:AF2)</f>
+        <f t="shared" ref="AG2:AG15" si="1">SUM(W2:AF2)</f>
         <v>12</v>
       </c>
       <c r="AH2" t="s">
@@ -1385,8 +1411,38 @@
       <c r="AV2">
         <v>1</v>
       </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>10</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>-5</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>-1</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1470,8 +1526,17 @@
       <c r="AT3">
         <v>1</v>
       </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>-5</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:62">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1547,8 +1612,29 @@
       <c r="AW4">
         <v>1</v>
       </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>10</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>-2</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:62">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1662,8 +1748,44 @@
       <c r="AW5">
         <v>1</v>
       </c>
+      <c r="AX5">
+        <v>2</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>10</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>-5</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:56">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1756,8 +1878,23 @@
       <c r="AW6">
         <v>1</v>
       </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>10</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>-5</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:56">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1880,15 +2017,38 @@
       <c r="AW7">
         <v>1</v>
       </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+      <c r="AY7">
+        <v>2</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>10</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>-5</v>
+      </c>
+      <c r="BD7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:62">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -1899,29 +2059,44 @@
         <v>1</v>
       </c>
       <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>-1</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
       <c r="W8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="W8:W20" si="2">SUM(C8:U8)</f>
+        <v>12</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -1933,17 +2108,83 @@
         <v>-1</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
       </c>
       <c r="AG8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>-5</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>10</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>-5</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>3</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>-1</v>
+      </c>
+      <c r="BI8">
+        <v>2</v>
+      </c>
+      <c r="BJ8">
+        <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:62">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1956,20 +2197,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
-        <v>-3</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1986,36 +2215,27 @@
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="T9">
-        <v>1</v>
+      <c r="S9">
+        <v>4</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
       </c>
       <c r="AB9">
         <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>-1</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>4</v>
       </c>
       <c r="AG9">
         <f t="shared" si="1"/>
@@ -2027,38 +2247,56 @@
       <c r="AI9">
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>5</v>
-      </c>
-      <c r="AL9">
-        <v>2</v>
-      </c>
       <c r="AM9">
         <v>1</v>
       </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
       <c r="AQ9">
-        <v>1</v>
-      </c>
-      <c r="AR9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>10</v>
+      </c>
+      <c r="BB9">
+        <v>6</v>
+      </c>
+      <c r="BC9">
         <v>-5</v>
       </c>
-      <c r="AS9">
-        <v>1</v>
-      </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>3</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9">
+        <v>-3</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:56">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2071,8 +2309,17 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2081,63 +2328,93 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="T10">
         <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
-      <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
       <c r="AB10">
         <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
       </c>
       <c r="AG10">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AH10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AI10">
         <v>1</v>
       </c>
-      <c r="AM10">
-        <v>1</v>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>5</v>
       </c>
       <c r="AO10">
         <v>1</v>
       </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>-5</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
       </c>
       <c r="AV10">
         <v>1</v>
       </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>10</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>-5</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:62">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2147,9 +2424,6 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="H11">
         <v>1</v>
       </c>
@@ -2169,23 +2443,20 @@
         <v>1</v>
       </c>
       <c r="O11">
+        <v>-3</v>
+      </c>
+      <c r="P11">
         <v>-2</v>
       </c>
-      <c r="P11">
-        <v>-5</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
+      <c r="U11">
         <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -2194,17 +2465,17 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="s">
         <v>10</v>
@@ -2212,13 +2483,13 @@
       <c r="AI11">
         <v>1</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
-      <c r="AK11">
-        <v>5</v>
+      <c r="AM11">
+        <v>1</v>
       </c>
       <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
         <v>1</v>
       </c>
       <c r="AQ11">
@@ -2228,10 +2499,10 @@
         <v>-5</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2239,227 +2510,395 @@
       <c r="AW11">
         <v>1</v>
       </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>-5</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>-2</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:56">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>8</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>3</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>10</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>-4</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>-3</v>
+      </c>
+      <c r="P13">
+        <v>-3</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>-2</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>-5</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>10</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>-5</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <v>3</v>
+      </c>
+      <c r="BH13">
         <v>-1</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>-2</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>9</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>-5</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>10</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <v>-5</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>2</v>
+      </c>
+      <c r="BH14">
         <v>-3</v>
       </c>
-      <c r="P12">
-        <v>-2</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" ref="AG12:AG25" si="2">SUM(W12:AF12)</f>
-        <v>4</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI12">
-        <v>1</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>-5</v>
-      </c>
-      <c r="AS12">
-        <v>2</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="AV12">
-        <v>1</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
+      <c r="BI14">
+        <v>2</v>
+      </c>
+      <c r="BJ14">
+        <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AA13">
-        <v>2</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>-1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>8</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>3</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AT14">
-        <v>1</v>
-      </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:62">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2472,6 +2911,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
       <c r="F15">
         <v>2</v>
       </c>
@@ -2484,17 +2926,17 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
       <c r="O15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2509,39 +2951,33 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="AB15">
         <v>1</v>
       </c>
       <c r="AC15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>-2</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="AH15" t="s">
         <v>10</v>
       </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
       <c r="AJ15">
         <v>1</v>
       </c>
       <c r="AK15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -2553,25 +2989,46 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>-5</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW15">
         <v>1</v>
       </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>10</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>-3</v>
+      </c>
+      <c r="BI15">
+        <v>4</v>
+      </c>
+      <c r="BJ15">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:62">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2584,6 +3041,9 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
       <c r="F16">
         <v>2</v>
       </c>
@@ -2591,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2602,64 +3062,73 @@
       <c r="M16">
         <v>1</v>
       </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="U16">
         <v>1</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>-2</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>-3</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16:AG22" si="3">SUM(W16:AF16)</f>
+        <v>10</v>
+      </c>
       <c r="AH16" t="s">
         <v>10</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
         <v>1</v>
       </c>
       <c r="AK16">
-        <v>9</v>
-      </c>
-      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR16">
         <v>-5</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT16">
         <v>3</v>
@@ -2670,8 +3139,41 @@
       <c r="AW16">
         <v>1</v>
       </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>10</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>-5</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+      <c r="BH16">
+        <v>-5</v>
+      </c>
+      <c r="BI16">
+        <v>1</v>
+      </c>
+      <c r="BJ16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:53">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2684,164 +3186,168 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
         <v>5</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="AD17">
         <v>-4</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>-2</v>
-      </c>
       <c r="AE17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>-5</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AH17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>-5</v>
-      </c>
-      <c r="AS17">
-        <v>2</v>
-      </c>
-      <c r="AT17">
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AF18">
         <v>3</v>
       </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>-2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>-1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <f t="shared" ref="W18:W25" si="3">SUM(C18:U18)</f>
-        <v>9</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>10</v>
-      </c>
       <c r="AG18">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="AH18" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
       <c r="AJ18">
         <v>1</v>
@@ -2849,41 +3355,35 @@
       <c r="AK18">
         <v>9</v>
       </c>
-      <c r="AO18">
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>2</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>10</v>
+      </c>
+      <c r="BD18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:56">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>-4</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
         <v>1</v>
       </c>
@@ -2899,31 +3399,25 @@
       <c r="Q19">
         <v>1</v>
       </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
       <c r="U19">
         <v>1</v>
       </c>
       <c r="W19">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>-3</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH19" t="s">
         <v>10</v>
@@ -2937,23 +3431,26 @@
       <c r="AK19">
         <v>1</v>
       </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
       <c r="AM19">
         <v>1</v>
       </c>
+      <c r="AN19">
+        <v>2</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
       <c r="AP19">
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>-5</v>
       </c>
       <c r="AS19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>3</v>
@@ -2961,392 +3458,337 @@
       <c r="AV19">
         <v>1</v>
       </c>
-      <c r="AW19">
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>-5</v>
+      </c>
+      <c r="BD19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:62">
       <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="AA20">
-        <v>2</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BG20">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>-5</v>
+      </c>
+      <c r="BI20">
+        <v>2</v>
+      </c>
+      <c r="BJ20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>-2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:W28" si="4">SUM(C23:U23)</f>
+        <v>9</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>10</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" ref="AG23:AG28" si="5">SUM(W23:AF23)</f>
+        <v>20</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>9</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>-1</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AD20">
-        <v>-4</v>
-      </c>
-      <c r="AE20">
-        <v>5</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI20">
+      <c r="AH25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>-3</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-      <c r="AK20">
-        <v>1</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
-      <c r="AR20">
-        <v>-5</v>
-      </c>
-      <c r="AS20">
+      <c r="AG27">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AU20">
-        <v>2</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
+      <c r="AH27" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>10</v>
-      </c>
-      <c r="AF21">
-        <v>3</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AK21">
-        <v>9</v>
-      </c>
-      <c r="AT21">
-        <v>1</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>-3</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>-1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:48">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>2</v>
-      </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AR25">
-        <v>-5</v>
-      </c>
-      <c r="AS25">
-        <v>1</v>
-      </c>
-      <c r="AT25">
-        <v>3</v>
-      </c>
-      <c r="AV25">
+      <c r="AH28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI28">
         <v>1</v>
       </c>
     </row>
